--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col9a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col9a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Col9a1</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col9a1</t>
-  </si>
-  <si>
-    <t>Mag</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +540,40 @@
         <v>0.06755800000000001</v>
       </c>
       <c r="I2">
-        <v>0.2160542390226742</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2160542390226742</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N2">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q2">
-        <v>0.01053804964288889</v>
+        <v>0.01842266875844445</v>
       </c>
       <c r="R2">
-        <v>0.09484244678600001</v>
+        <v>0.165804018826</v>
       </c>
       <c r="S2">
-        <v>0.1294100550234617</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="T2">
-        <v>0.1294100550234617</v>
+        <v>0.5115352725808422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -602,10 +602,10 @@
         <v>0.06755800000000001</v>
       </c>
       <c r="I3">
-        <v>0.2160542390226742</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2160542390226742</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,152 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N3">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q3">
-        <v>0.007055562352444445</v>
+        <v>0.01759179543577778</v>
       </c>
       <c r="R3">
-        <v>0.06350006117200001</v>
+        <v>0.158326158922</v>
       </c>
       <c r="S3">
-        <v>0.08664418399921252</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="T3">
-        <v>0.08664418399921252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.08171066666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.245132</v>
-      </c>
-      <c r="I4">
-        <v>0.7839457609773258</v>
-      </c>
-      <c r="J4">
-        <v>0.7839457609773258</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.4679556666666667</v>
-      </c>
-      <c r="N4">
-        <v>1.403867</v>
-      </c>
-      <c r="O4">
-        <v>0.5989702197413518</v>
-      </c>
-      <c r="P4">
-        <v>0.5989702197413518</v>
-      </c>
-      <c r="Q4">
-        <v>0.03823696949377778</v>
-      </c>
-      <c r="R4">
-        <v>0.344132725444</v>
-      </c>
-      <c r="S4">
-        <v>0.4695601647178901</v>
-      </c>
-      <c r="T4">
-        <v>0.4695601647178901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.08171066666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.245132</v>
-      </c>
-      <c r="I5">
-        <v>0.7839457609773258</v>
-      </c>
-      <c r="J5">
-        <v>0.7839457609773258</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.3133113333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.939934</v>
-      </c>
-      <c r="O5">
-        <v>0.4010297802586483</v>
-      </c>
-      <c r="P5">
-        <v>0.4010297802586483</v>
-      </c>
-      <c r="Q5">
-        <v>0.02560087792088889</v>
-      </c>
-      <c r="R5">
-        <v>0.230407901288</v>
-      </c>
-      <c r="S5">
-        <v>0.3143855962594358</v>
-      </c>
-      <c r="T5">
-        <v>0.3143855962594358</v>
+        <v>0.4884647274191579</v>
       </c>
     </row>
   </sheetData>
